--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TVLK\Sprint 2\Traveloka_DataAutomation_Dispatcher_Email_S2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TVLK\Sprint 3\Traveloka_DataAutomation_Dispatcher_Email_S3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4B6A43-1661-4F21-B522-39B3AF914FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F078DD-EAB8-4E36-9F74-A12F1E864916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>SheetIdConfigAccommodation</t>
+  </si>
+  <si>
+    <t>SheetIdConfigInterCon</t>
+  </si>
+  <si>
+    <t>[Dev] RPA_Moon_SheetIdConfig_InterCon</t>
   </si>
 </sst>
 </file>
@@ -593,12 +599,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="74.88671875" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="74.85546875" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -646,7 +652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -656,7 +662,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -667,7 +673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="34.950000000000003" customHeight="1">
+    <row r="6" spans="1:26" ht="34.9" customHeight="1">
       <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
         <v>47</v>
@@ -1686,12 +1692,12 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1728,7 +1734,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1853,7 +1859,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2846,15 +2852,15 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2949,7 +2955,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TVLK\Sprint 3\Traveloka_DataAutomation_Dispatcher_Email_S3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F078DD-EAB8-4E36-9F74-A12F1E864916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1305DA7F-AE09-4DA8-B9F1-D45BB52625C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
     <t>SheetIdConfigInterCon</t>
   </si>
   <si>
-    <t>[Dev] RPA_Moon_SheetIdConfig_InterCon</t>
+    <t>[Dev] RPA_Moon_SheetIdConfig_IC</t>
   </si>
 </sst>
 </file>
@@ -599,12 +599,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="74.85546875" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="2" max="2" width="74.88671875" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -652,7 +652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -662,7 +662,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="30">
+    <row r="5" spans="1:26" ht="28.8">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -673,7 +673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="34.9" customHeight="1">
+    <row r="6" spans="1:26" ht="34.950000000000003" customHeight="1">
       <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
         <v>47</v>
@@ -1692,12 +1692,12 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1734,7 +1734,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1859,7 +1859,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="28.8">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2852,15 +2852,15 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TVLK\Sprint 3\Traveloka_DataAutomation_Dispatcher_Email_S3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1305DA7F-AE09-4DA8-B9F1-D45BB52625C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3552D073-AA26-4161-A2C0-75448C0E1BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,10 +213,10 @@
     <t>SheetIdConfigAccommodation</t>
   </si>
   <si>
-    <t>SheetIdConfigInterCon</t>
-  </si>
-  <si>
     <t>[Dev] RPA_Moon_SheetIdConfig_IC</t>
+  </si>
+  <si>
+    <t>SheetIdConfigIC</t>
   </si>
 </sst>
 </file>
@@ -2852,7 +2852,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2957,10 +2957,10 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
